--- a/data/trans_bre/P12_2_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>11.02546274724576</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10.73222721463965</v>
+        <v>10.73222721463964</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03492167332720373</v>
@@ -649,7 +649,7 @@
         <v>0.4019139547140252</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4288644293453955</v>
+        <v>0.4288644293453953</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.178242918059567</v>
+        <v>-5.907817140319986</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.198867035480972</v>
+        <v>-2.658489968955233</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.71315724848797</v>
+        <v>2.849241080503154</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.3305563845472</v>
+        <v>4.464535113485577</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2735568962154044</v>
+        <v>-0.2600817542811502</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1035107457817071</v>
+        <v>-0.08745563769973988</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1104459440050212</v>
+        <v>0.08269257836704916</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1366409162548932</v>
+        <v>0.1549396670182344</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.203933044894422</v>
+        <v>8.776585158456404</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.25582885072675</v>
+        <v>12.94150953670451</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19.03645664513041</v>
+        <v>19.10197052326737</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.74974397821481</v>
+        <v>16.93214959469954</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5086997655363376</v>
+        <v>0.5460579504439818</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5592234785746818</v>
+        <v>0.5565306425395814</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8316561910020981</v>
+        <v>0.8127586416751118</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.7780611793166461</v>
+        <v>0.7865021168533824</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>6.29717088637523</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.582796664165881</v>
+        <v>7.582796664165882</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4310001509305753</v>
@@ -749,7 +749,7 @@
         <v>0.4953309639330647</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.6942973725620638</v>
+        <v>0.6942973725620639</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.414490754250185</v>
+        <v>3.955479538339744</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.001950109646814</v>
+        <v>4.449407729699646</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.121380821444611</v>
+        <v>1.44401482895593</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.090459103730486</v>
+        <v>3.151275802667118</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1684060717524912</v>
+        <v>0.1357188501106641</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3085810123300594</v>
+        <v>0.3604971804484378</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06534018450215276</v>
+        <v>0.1028713875661171</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2154271344953296</v>
+        <v>0.2176638096995797</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.58792025044251</v>
+        <v>16.03011119922172</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.87597899419409</v>
+        <v>12.97706553192795</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.94872978179999</v>
+        <v>11.15434020470792</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11.47165792942187</v>
+        <v>11.3738968879853</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7742535721797971</v>
+        <v>0.7697385995672342</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.675925068236406</v>
+        <v>1.740213689152334</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9938005493089757</v>
+        <v>1.07259079815971</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.303199433465471</v>
+        <v>1.306205948564185</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.509408180184451</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.039876729861805</v>
+        <v>1.039876729861802</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.84947497809896</v>
@@ -849,7 +849,7 @@
         <v>0.1679530219276065</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.06533375518511118</v>
+        <v>0.06533375518511102</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.918943710992318</v>
+        <v>4.264383450360477</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.104971877418969</v>
+        <v>-0.9455887824228447</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.650717483839118</v>
+        <v>-2.714045574266532</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.808875173924341</v>
+        <v>-3.62428016181232</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2193185700165903</v>
+        <v>0.2863021191009756</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.06347483138507666</v>
+        <v>-0.06121104399858375</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1147948690793305</v>
+        <v>-0.1098180505011138</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2171841406802105</v>
+        <v>-0.1974662926423525</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.64336733610676</v>
+        <v>15.64093322242</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.11965665759748</v>
+        <v>10.84184694884944</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.879840752310491</v>
+        <v>9.491175391585978</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.064338664956735</v>
+        <v>5.957255709860798</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.659488537706543</v>
+        <v>1.812582084197649</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8885146712228875</v>
+        <v>0.9487613653023436</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5509101055351185</v>
+        <v>0.5540900688967944</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4600962420809753</v>
+        <v>0.4600789682913873</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.62850805475364</v>
+        <v>7.297619456595948</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>13.44484286196926</v>
+        <v>13.44421679750033</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9414123649858068</v>
+        <v>-0.08970590776933096</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.953851475487395</v>
+        <v>-2.481947836769756</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.463529746944139</v>
+        <v>0.4179860250301819</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6098732091200597</v>
+        <v>0.5698331331293354</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0295008695896604</v>
+        <v>-0.007697264256913785</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1457596343285749</v>
+        <v>-0.1161643349765852</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>18.94553702150067</v>
+        <v>19.1403001757209</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>27.04039591676172</v>
+        <v>26.38191954715294</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13.16706380649288</v>
+        <v>12.77691323283868</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.773068072250702</v>
+        <v>9.780578876107523</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.648870480972098</v>
+        <v>1.671612208666659</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.790000726370129</v>
+        <v>1.702673420163429</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7314280660096617</v>
+        <v>0.717006591194139</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6689829755675128</v>
+        <v>0.7172068659622726</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>5.864359480472359</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13.71149163232162</v>
+        <v>13.71149163232161</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3155329449761432</v>
@@ -1049,7 +1049,7 @@
         <v>0.2713829227101843</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3709206414206962</v>
+        <v>0.3709206414206959</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.756575409389067</v>
+        <v>1.654201734055293</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.875989124881409</v>
+        <v>8.512037722281061</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.762022464109832</v>
+        <v>-2.144073902049438</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.900853500298217</v>
+        <v>6.195744862075169</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.02211657406149379</v>
+        <v>0.04184858842515223</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4416656933976873</v>
+        <v>0.4214426545251559</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.06970361003436462</v>
+        <v>-0.0840880138341344</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1376972151698743</v>
+        <v>0.1410538219001304</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>19.92105276612605</v>
+        <v>21.29050500870468</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>25.89265489706132</v>
+        <v>25.18070457363594</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.57007368108324</v>
+        <v>14.31573568570977</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21.21172821732954</v>
+        <v>20.82918542954463</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6937357164827407</v>
+        <v>0.7373864741304217</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.100159788935314</v>
+        <v>1.980730046388938</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8595085107652762</v>
+        <v>0.8201986637951953</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6705021969987057</v>
+        <v>0.6444901885386169</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>5.471945348193533</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-0.3441586336650093</v>
+        <v>-0.3441586336650121</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.23124137969738</v>
@@ -1149,7 +1149,7 @@
         <v>0.4310522823218225</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.02129693377196446</v>
+        <v>-0.02129693377196464</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>8.196464175083166</v>
+        <v>8.660836794130216</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-3.875944449195089</v>
+        <v>-3.76981169356358</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.323311739824633</v>
+        <v>-0.6132607904689922</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-5.629318042000218</v>
+        <v>-5.13195052903964</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5155029584815219</v>
+        <v>0.5171102473254835</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2043297442287003</v>
+        <v>-0.2077794390970665</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1178398304949275</v>
+        <v>-0.04889156550155885</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3010596562208165</v>
+        <v>-0.2846081751579326</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>21.50737422944834</v>
+        <v>22.11930080319144</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.661892271334073</v>
+        <v>9.06114620757071</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11.48832185403148</v>
+        <v>12.13181581116229</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4.157768960902305</v>
+        <v>4.438317199076493</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.220234280163259</v>
+        <v>2.329216475568774</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8064833889621061</v>
+        <v>0.7918452029319752</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.158076880446611</v>
+        <v>1.19223167031479</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3066019121762463</v>
+        <v>0.334223419462421</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>8.672160022446604</v>
+        <v>8.721501664184716</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.171910141734378</v>
+        <v>0.7079780817962755</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.905733216960592</v>
+        <v>3.046372995875977</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.618075334585221</v>
+        <v>2.930124761031834</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7018588050379536</v>
+        <v>0.701958935970328</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04924280419395013</v>
+        <v>0.02968858898017348</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1412469203486884</v>
+        <v>0.1529826317032541</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.09956603591059283</v>
+        <v>0.1395811913353302</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.75133675371217</v>
+        <v>17.23413544230522</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.92282293359446</v>
+        <v>10.37254699471682</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.80850497815259</v>
+        <v>11.84110956930154</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.77247446387168</v>
+        <v>11.70436592896111</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.001036929983204</v>
+        <v>2.049770721495886</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6009542826105098</v>
+        <v>0.5767069803255337</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8050949445396619</v>
+        <v>0.8001251711933062</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.6801450183927883</v>
+        <v>0.7040805666353183</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>3.184809215273027</v>
+        <v>3.369538590963695</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.721153196989277</v>
+        <v>2.392707518818493</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.263684549158056</v>
+        <v>3.206018146769687</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4.210308108644682</v>
+        <v>4.361604506958139</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1006164219396414</v>
+        <v>0.1028629032175544</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08549803836932142</v>
+        <v>0.120104116225622</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3656375920671887</v>
+        <v>0.3335874744452502</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3414391295549024</v>
+        <v>0.3456134471913144</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>13.45571373422549</v>
+        <v>12.33670454123296</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>10.09197374754491</v>
+        <v>10.4488500156756</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>9.635108476033649</v>
+        <v>9.568417237815771</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>10.24544441304879</v>
+        <v>10.38891490660507</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4927802310275277</v>
+        <v>0.4532454802368651</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6391223396527099</v>
+        <v>0.6719606063112588</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.59175544348129</v>
+        <v>1.577797721948776</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.132341278490601</v>
+        <v>1.18948204970979</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>6.567466188188945</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6.617736339065247</v>
+        <v>6.617736339065239</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5207795035316926</v>
@@ -1449,7 +1449,7 @@
         <v>0.4191240300319288</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.3920153425350609</v>
+        <v>0.3920153425350604</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>7.976775313950836</v>
+        <v>8.25893953820545</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>6.109239061424576</v>
+        <v>6.19531996061392</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.628356526355123</v>
+        <v>4.584284692252886</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.928249987469161</v>
+        <v>4.905750541744579</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.3892414892627907</v>
+        <v>0.392773752342283</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3359863455031767</v>
+        <v>0.3407629198510513</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2786321525553289</v>
+        <v>0.2768332066712745</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.2714671581239183</v>
+        <v>0.2802963235105216</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.34138038979451</v>
+        <v>12.39400499031741</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.893062033714607</v>
+        <v>10.41009934366055</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.380938286885055</v>
+        <v>8.436304823511499</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.328411031561824</v>
+        <v>8.483376187647904</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.6777110904244519</v>
+        <v>0.6633609883055446</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.6100501992964105</v>
+        <v>0.6278289004340827</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.566453499688481</v>
+        <v>0.578663998886875</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.5282720038343555</v>
+        <v>0.5382666987692529</v>
       </c>
     </row>
     <row r="31">
